--- a/biology/Zoologie/Buccinoidea/Buccinoidea.xlsx
+++ b/biology/Zoologie/Buccinoidea/Buccinoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Buccinoidea constituent une super-famille de gastéropodes marins carnivores de l'ordre des Neogastropoda, dont le plus connu et consommé est le buccin commun, gros buccin ou bulot (Buccinum undatum) très souvent consommés dans les plateaux de fruits de mer.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (18 septembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (18 septembre 2019) :
 famille Belomitridae Kantor, Puillandre, Rivasseau &amp; Bouchet, 2012 -- 1 genre
 famille Buccinidae Rafinesque, 1815 -- 110 genres actuels
 famille Busyconidae Wade, 1917 (1867) -- 6 genres
